--- a/Backup/Archivos XLS/Historial de status.xlsx
+++ b/Backup/Archivos XLS/Historial de status.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Status original</t>
   </si>
@@ -50,10 +50,19 @@
     <t>Se borra con revisión</t>
   </si>
   <si>
-    <t>4/5</t>
-  </si>
-  <si>
-    <t>1/4/5</t>
+    <t>Aprob</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>No se guarda</t>
   </si>
 </sst>
 </file>
@@ -395,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,7 +417,7 @@
     <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -418,60 +427,162 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>5</v>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Backup/Archivos XLS/Historial de status.xlsx
+++ b/Backup/Archivos XLS/Historial de status.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$11</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>Status original</t>
   </si>
@@ -44,9 +47,6 @@
     <t>2/3</t>
   </si>
   <si>
-    <t>1/2</t>
-  </si>
-  <si>
     <t>Se borra con revisión</t>
   </si>
   <si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>No se guarda</t>
+  </si>
+  <si>
+    <t>Feedback</t>
   </si>
 </sst>
 </file>
@@ -404,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -417,7 +420,7 @@
     <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -428,10 +431,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -442,10 +448,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -456,10 +465,13 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -467,29 +479,35 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>5</v>
@@ -498,54 +516,66 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>1</v>
       </c>
       <c r="B10" s="3">
         <v>6</v>
@@ -554,12 +584,15 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>5</v>
       </c>
       <c r="B11" s="3">
         <v>6</v>
@@ -570,22 +603,12 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
+      <c r="E11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Backup/Archivos XLS/Historial de status.xlsx
+++ b/Backup/Archivos XLS/Historial de status.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$E$11</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
   <si>
     <t>Status original</t>
   </si>
@@ -66,13 +67,49 @@
   </si>
   <si>
     <t>Feedback</t>
+  </si>
+  <si>
+    <t>1 a 2</t>
+  </si>
+  <si>
+    <t>1 a 3</t>
+  </si>
+  <si>
+    <t>1 a 6</t>
+  </si>
+  <si>
+    <t>2 a 3</t>
+  </si>
+  <si>
+    <t>1 a 4</t>
+  </si>
+  <si>
+    <t>In a Fin</t>
+  </si>
+  <si>
+    <t>3 a 4</t>
+  </si>
+  <si>
+    <t>2 a 4</t>
+  </si>
+  <si>
+    <t>4 a 6</t>
+  </si>
+  <si>
+    <t>1 a 5</t>
+  </si>
+  <si>
+    <t>6 a 5</t>
+  </si>
+  <si>
+    <t>4 a 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,8 +125,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,6 +164,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -115,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -127,6 +222,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,4 +753,363 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="7" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="20"/>
+    <col min="7" max="9" width="11.5546875" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="10"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="10"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="10"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+    </row>
+    <row r="9" spans="1:9" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="3"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="3"/>
+      <c r="H16"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="10"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>